--- a/compute_result.xlsx
+++ b/compute_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohei/Downloads/srm-combustion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCC0B1-81E3-BC41-8D97-63C1DBFB9C3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9F8142-E5FB-7249-B760-4C565B744159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1800" windowWidth="28160" windowHeight="17440" xr2:uid="{A4C63F7A-E2F1-FB42-8582-8DB17A67CF9A}"/>
+    <workbookView xWindow="8220" yWindow="1140" windowWidth="28160" windowHeight="17440" xr2:uid="{A4C63F7A-E2F1-FB42-8582-8DB17A67CF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
